--- a/data/Preparation/raw/PAM.xlsx
+++ b/data/Preparation/raw/PAM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\use\Dropbox (OPML)\LIGADA MEL\MEL working\09 Follow up studies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573216A9-0214-4506-B2E9-8A7FB919E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA19D5-946C-493F-AA1A-13F6A38CA2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="181">
   <si>
     <t>Nome</t>
   </si>
@@ -517,24 +517,6 @@
   </si>
   <si>
     <t>Justina bombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maputo </t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matola </t>
-  </si>
-  <si>
-    <t>Cidade de Maputo</t>
-  </si>
-  <si>
-    <t>Matola</t>
-  </si>
-  <si>
-    <t>Boane</t>
   </si>
   <si>
     <t xml:space="preserve">Mahotas </t>
@@ -592,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,50 +588,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -657,46 +605,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +895,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+      <selection activeCell="F61" sqref="F61:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,10 +953,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
@@ -1056,22 +971,22 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="1">
         <v>43952</v>
       </c>
       <c r="I2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>92</v>
       </c>
       <c r="N2" t="s">
@@ -1082,10 +997,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>40</v>
       </c>
       <c r="D3" t="s">
@@ -1100,22 +1015,22 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="1">
         <v>43952</v>
       </c>
       <c r="I3" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>92</v>
       </c>
       <c r="N3" t="s">
@@ -1126,10 +1041,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1144,19 +1059,19 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="1">
         <v>43952</v>
       </c>
       <c r="I4" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>76</v>
       </c>
       <c r="M4" t="s">
@@ -1170,10 +1085,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -1188,19 +1103,19 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>43952</v>
       </c>
       <c r="I5" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>822449344</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
       <c r="M5" t="s">
@@ -1214,10 +1129,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -1232,19 +1147,19 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="1">
         <v>43952</v>
       </c>
       <c r="I6" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>74</v>
       </c>
       <c r="M6" t="s">
@@ -1258,10 +1173,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>41</v>
       </c>
       <c r="D7" t="s">
@@ -1276,22 +1191,22 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="1">
         <v>43952</v>
       </c>
       <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>98</v>
       </c>
       <c r="N7" t="s">
@@ -1302,16 +1217,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>99</v>
       </c>
       <c r="F8" t="s">
@@ -1320,22 +1235,22 @@
       <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="1">
         <v>43952</v>
       </c>
       <c r="I8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
         <v>98</v>
       </c>
       <c r="N8" t="s">
@@ -1346,16 +1261,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>99</v>
       </c>
       <c r="F9" t="s">
@@ -1364,22 +1279,22 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="1">
         <v>43952</v>
       </c>
       <c r="I9" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
         <v>98</v>
       </c>
       <c r="N9" t="s">
@@ -1390,16 +1305,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>99</v>
       </c>
       <c r="F10" t="s">
@@ -1408,22 +1323,22 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="1">
         <v>43952</v>
       </c>
       <c r="I10" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
         <v>98</v>
       </c>
       <c r="N10" t="s">
@@ -1434,16 +1349,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>99</v>
       </c>
       <c r="F11" t="s">
@@ -1452,22 +1367,22 @@
       <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="1">
         <v>43952</v>
       </c>
       <c r="I11" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s">
         <v>98</v>
       </c>
       <c r="N11" t="s">
@@ -1478,16 +1393,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>99</v>
       </c>
       <c r="F12" t="s">
@@ -1496,22 +1411,22 @@
       <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="1">
         <v>43952</v>
       </c>
       <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" t="s">
         <v>98</v>
       </c>
       <c r="N12" t="s">
@@ -1522,16 +1437,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>99</v>
       </c>
       <c r="F13" t="s">
@@ -1540,22 +1455,22 @@
       <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="1">
         <v>43952</v>
       </c>
       <c r="I13" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" t="s">
         <v>98</v>
       </c>
       <c r="N13" t="s">
@@ -1566,16 +1481,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>93</v>
       </c>
       <c r="F14" t="s">
@@ -1584,20 +1499,23 @@
       <c r="G14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="1">
         <v>43952</v>
       </c>
       <c r="I14" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>37</v>
@@ -1607,16 +1525,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>93</v>
       </c>
       <c r="F15" t="s">
@@ -1625,20 +1543,23 @@
       <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="1">
         <v>43952</v>
       </c>
       <c r="I15" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>84</v>
+      </c>
+      <c r="M15" t="s">
+        <v>98</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
@@ -1648,16 +1569,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" t="s">
         <v>93</v>
       </c>
       <c r="F16" t="s">
@@ -1666,20 +1587,23 @@
       <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="1">
         <v>43952</v>
       </c>
       <c r="I16" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>85</v>
+      </c>
+      <c r="M16" t="s">
+        <v>92</v>
       </c>
       <c r="N16" t="s">
         <v>37</v>
@@ -1689,16 +1613,16 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>93</v>
       </c>
       <c r="F17" t="s">
@@ -1707,20 +1631,23 @@
       <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="1">
         <v>43952</v>
       </c>
       <c r="I17" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>98</v>
       </c>
       <c r="N17" t="s">
         <v>37</v>
@@ -1730,16 +1657,16 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" t="s">
         <v>93</v>
       </c>
       <c r="F18" t="s">
@@ -1748,20 +1675,23 @@
       <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="1">
         <v>43952</v>
       </c>
       <c r="I18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>98</v>
       </c>
       <c r="N18" t="s">
         <v>37</v>
@@ -1771,16 +1701,16 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
       <c r="F19" t="s">
@@ -1789,20 +1719,23 @@
       <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="1">
         <v>43952</v>
       </c>
       <c r="I19" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>88</v>
+      </c>
+      <c r="M19" t="s">
+        <v>98</v>
       </c>
       <c r="N19" t="s">
         <v>37</v>
@@ -1812,16 +1745,16 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>93</v>
       </c>
       <c r="F20" t="s">
@@ -1830,20 +1763,23 @@
       <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="1">
         <v>43952</v>
       </c>
       <c r="I20" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
       </c>
       <c r="N20" t="s">
         <v>37</v>
@@ -1853,16 +1789,16 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>99</v>
       </c>
       <c r="F21" t="s">
@@ -1871,20 +1807,23 @@
       <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="1">
         <v>43952</v>
       </c>
       <c r="I21" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>90</v>
+      </c>
+      <c r="M21" t="s">
+        <v>98</v>
       </c>
       <c r="N21" t="s">
         <v>37</v>
@@ -1894,16 +1833,16 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22">
         <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" t="s">
         <v>93</v>
       </c>
       <c r="F22" t="s">
@@ -1912,20 +1851,23 @@
       <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="1">
         <v>44075</v>
       </c>
       <c r="I22" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22">
         <v>842659541</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22">
         <v>872659548</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" t="s">
         <v>124</v>
+      </c>
+      <c r="M22" t="s">
+        <v>98</v>
       </c>
       <c r="N22" t="s">
         <v>37</v>
@@ -1935,16 +1877,16 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" t="s">
         <v>93</v>
       </c>
       <c r="F23" t="s">
@@ -1953,17 +1895,20 @@
       <c r="G23" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="1">
         <v>44075</v>
       </c>
       <c r="I23" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23">
         <v>827846707</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" t="s">
         <v>125</v>
+      </c>
+      <c r="M23" t="s">
+        <v>98</v>
       </c>
       <c r="N23" t="s">
         <v>37</v>
@@ -1973,16 +1918,16 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" t="s">
         <v>123</v>
       </c>
       <c r="F24" t="s">
@@ -1991,20 +1936,23 @@
       <c r="G24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="1">
         <v>44075</v>
       </c>
       <c r="I24" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24">
         <v>844165557</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24">
         <v>847795827</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" t="s">
         <v>126</v>
+      </c>
+      <c r="M24" t="s">
+        <v>98</v>
       </c>
       <c r="N24" t="s">
         <v>37</v>
@@ -2014,16 +1962,16 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" t="s">
         <v>93</v>
       </c>
       <c r="F25" t="s">
@@ -2032,17 +1980,20 @@
       <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="1">
         <v>44075</v>
       </c>
       <c r="I25" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25">
         <v>843858510</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>37</v>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>98</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -2052,16 +2003,16 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" t="s">
         <v>93</v>
       </c>
       <c r="F26" t="s">
@@ -2070,20 +2021,23 @@
       <c r="G26" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="1">
         <v>44075</v>
       </c>
       <c r="I26" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26">
         <v>842623457</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26">
         <v>840118534</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" t="s">
         <v>127</v>
+      </c>
+      <c r="M26" t="s">
+        <v>98</v>
       </c>
       <c r="N26" t="s">
         <v>37</v>
@@ -2093,16 +2047,16 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" t="s">
         <v>93</v>
       </c>
       <c r="F27" t="s">
@@ -2111,20 +2065,23 @@
       <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="1">
         <v>44075</v>
       </c>
       <c r="I27" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27">
         <v>860119416</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27">
         <v>844908849</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" t="s">
         <v>128</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
       </c>
       <c r="N27" t="s">
         <v>37</v>
@@ -2134,16 +2091,16 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" t="s">
         <v>96</v>
       </c>
       <c r="F28" t="s">
@@ -2152,20 +2109,23 @@
       <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="1">
         <v>44075</v>
       </c>
       <c r="I28" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28">
         <v>849900940</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28">
         <v>843808468</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" t="s">
         <v>129</v>
+      </c>
+      <c r="M28" t="s">
+        <v>92</v>
       </c>
       <c r="N28" t="s">
         <v>37</v>
@@ -2175,16 +2135,16 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" t="s">
         <v>93</v>
       </c>
       <c r="F29" t="s">
@@ -2193,17 +2153,20 @@
       <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="1">
         <v>44075</v>
       </c>
       <c r="I29" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29">
         <v>846439885</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" t="s">
         <v>130</v>
+      </c>
+      <c r="M29" t="s">
+        <v>98</v>
       </c>
       <c r="N29" t="s">
         <v>37</v>
@@ -2213,16 +2176,16 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30">
         <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" t="s">
         <v>96</v>
       </c>
       <c r="F30" t="s">
@@ -2231,20 +2194,23 @@
       <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="1">
         <v>44075</v>
       </c>
       <c r="I30" t="s">
         <v>91</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30">
         <v>849643419</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30">
         <v>879643419</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" t="s">
         <v>131</v>
+      </c>
+      <c r="M30" t="s">
+        <v>92</v>
       </c>
       <c r="N30" t="s">
         <v>37</v>
@@ -2254,16 +2220,16 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31">
         <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" t="s">
         <v>99</v>
       </c>
       <c r="F31" t="s">
@@ -2272,20 +2238,23 @@
       <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="1">
         <v>44075</v>
       </c>
       <c r="I31" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31">
         <v>847338384</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31">
         <v>842528743</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" t="s">
         <v>132</v>
+      </c>
+      <c r="M31" t="s">
+        <v>98</v>
       </c>
       <c r="N31" t="s">
         <v>37</v>
@@ -2295,16 +2264,16 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32">
         <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" t="s">
         <v>99</v>
       </c>
       <c r="F32" t="s">
@@ -2313,20 +2282,23 @@
       <c r="G32" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="1">
         <v>44075</v>
       </c>
       <c r="I32" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32">
         <v>865887033</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32">
         <v>842127157</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" t="s">
         <v>133</v>
+      </c>
+      <c r="M32" t="s">
+        <v>92</v>
       </c>
       <c r="N32" t="s">
         <v>37</v>
@@ -2336,16 +2308,16 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33">
         <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" t="s">
         <v>99</v>
       </c>
       <c r="F33" t="s">
@@ -2354,17 +2326,20 @@
       <c r="G33" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="1">
         <v>44075</v>
       </c>
       <c r="I33" t="s">
         <v>91</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33">
         <v>845461609</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" t="s">
         <v>134</v>
+      </c>
+      <c r="M33" t="s">
+        <v>98</v>
       </c>
       <c r="N33" t="s">
         <v>37</v>
@@ -2374,16 +2349,16 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" t="s">
         <v>93</v>
       </c>
       <c r="F34" t="s">
@@ -2392,17 +2367,20 @@
       <c r="G34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="1">
         <v>44075</v>
       </c>
       <c r="I34" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34">
         <v>842973708</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" t="s">
         <v>135</v>
+      </c>
+      <c r="M34" t="s">
+        <v>98</v>
       </c>
       <c r="N34" t="s">
         <v>37</v>
@@ -2412,16 +2390,16 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" t="s">
         <v>93</v>
       </c>
       <c r="F35" t="s">
@@ -2430,20 +2408,23 @@
       <c r="G35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="1">
         <v>44075</v>
       </c>
       <c r="I35" t="s">
         <v>91</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35">
         <v>846526562</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35">
         <v>823502150</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" t="s">
         <v>136</v>
+      </c>
+      <c r="M35" t="s">
+        <v>92</v>
       </c>
       <c r="N35" t="s">
         <v>37</v>
@@ -2453,16 +2434,16 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36">
         <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" t="s">
         <v>123</v>
       </c>
       <c r="F36" t="s">
@@ -2471,20 +2452,23 @@
       <c r="G36" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="1">
         <v>44075</v>
       </c>
       <c r="I36" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36">
         <v>847349941</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36">
         <v>870611512</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" t="s">
         <v>137</v>
+      </c>
+      <c r="M36" t="s">
+        <v>98</v>
       </c>
       <c r="N36" t="s">
         <v>37</v>
@@ -2494,16 +2478,16 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37">
         <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" t="s">
         <v>93</v>
       </c>
       <c r="F37" t="s">
@@ -2512,20 +2496,23 @@
       <c r="G37" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="1">
         <v>44075</v>
       </c>
       <c r="I37" t="s">
         <v>91</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37">
         <v>846803717</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37">
         <v>846803717</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" t="s">
         <v>138</v>
+      </c>
+      <c r="M37" t="s">
+        <v>98</v>
       </c>
       <c r="N37" t="s">
         <v>37</v>
@@ -2535,16 +2522,16 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38">
         <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" t="s">
         <v>93</v>
       </c>
       <c r="F38" t="s">
@@ -2553,20 +2540,23 @@
       <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="1">
         <v>44075</v>
       </c>
       <c r="I38" t="s">
         <v>91</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38">
         <v>849621681</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38">
         <v>823828932</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" t="s">
         <v>139</v>
+      </c>
+      <c r="M38" t="s">
+        <v>98</v>
       </c>
       <c r="N38" t="s">
         <v>37</v>
@@ -2576,16 +2566,16 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39">
         <v>23</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" t="s">
         <v>93</v>
       </c>
       <c r="F39" t="s">
@@ -2594,17 +2584,20 @@
       <c r="G39" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="1">
         <v>44075</v>
       </c>
       <c r="I39" t="s">
         <v>91</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39">
         <v>873960299</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" t="s">
         <v>140</v>
+      </c>
+      <c r="M39" t="s">
+        <v>98</v>
       </c>
       <c r="N39" t="s">
         <v>37</v>
@@ -2614,16 +2607,16 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40">
         <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" t="s">
         <v>93</v>
       </c>
       <c r="F40" t="s">
@@ -2632,20 +2625,23 @@
       <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="1">
         <v>44075</v>
       </c>
       <c r="I40" t="s">
         <v>91</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40">
         <v>845674383</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40">
         <v>826168349</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" t="s">
         <v>141</v>
+      </c>
+      <c r="M40" t="s">
+        <v>98</v>
       </c>
       <c r="N40" t="s">
         <v>37</v>
@@ -2655,16 +2651,16 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41">
         <v>23</v>
       </c>
       <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" t="s">
         <v>99</v>
       </c>
       <c r="F41" t="s">
@@ -2673,20 +2669,23 @@
       <c r="G41" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="1">
         <v>44075</v>
       </c>
       <c r="I41" t="s">
         <v>91</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41">
         <v>840395261</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41">
         <v>840728309</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" t="s">
         <v>142</v>
+      </c>
+      <c r="M41" t="s">
+        <v>98</v>
       </c>
       <c r="N41" t="s">
         <v>37</v>
@@ -2696,16 +2695,16 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42">
         <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" t="s">
         <v>93</v>
       </c>
       <c r="F42" t="s">
@@ -2714,20 +2713,23 @@
       <c r="G42" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="1">
         <v>44075</v>
       </c>
       <c r="I42" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42">
         <v>841347549</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42">
         <v>829239500</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" t="s">
         <v>143</v>
+      </c>
+      <c r="M42" t="s">
+        <v>92</v>
       </c>
       <c r="N42" t="s">
         <v>37</v>
@@ -2737,16 +2739,16 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43">
         <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" t="s">
         <v>93</v>
       </c>
       <c r="F43" t="s">
@@ -2755,23 +2757,23 @@
       <c r="G43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="1">
         <v>44287</v>
       </c>
       <c r="I43" t="s">
         <v>91</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43">
         <v>821364691</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43">
         <v>843749554</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M43" s="9" t="s">
+      <c r="L43" t="s">
         <v>164</v>
+      </c>
+      <c r="M43" t="s">
+        <v>98</v>
       </c>
       <c r="N43" t="s">
         <v>37</v>
@@ -2781,16 +2783,16 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44">
         <v>23</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" t="s">
         <v>99</v>
       </c>
       <c r="F44" t="s">
@@ -2799,23 +2801,23 @@
       <c r="G44" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="1">
         <v>44287</v>
       </c>
       <c r="I44" t="s">
         <v>91</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44">
         <v>845166688</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44">
         <v>879004005</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>37</v>
+      <c r="L44" t="s">
+        <v>165</v>
+      </c>
+      <c r="M44" t="s">
+        <v>98</v>
       </c>
       <c r="N44" t="s">
         <v>37</v>
@@ -2825,16 +2827,16 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45">
         <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" t="s">
         <v>96</v>
       </c>
       <c r="F45" t="s">
@@ -2843,23 +2845,23 @@
       <c r="G45" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="1">
         <v>44287</v>
       </c>
       <c r="I45" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45">
         <v>852045898</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45">
         <v>844437057</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>37</v>
+      <c r="L45" t="s">
+        <v>166</v>
+      </c>
+      <c r="M45" t="s">
+        <v>98</v>
       </c>
       <c r="N45" t="s">
         <v>37</v>
@@ -2869,16 +2871,16 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46">
         <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" t="s">
         <v>93</v>
       </c>
       <c r="F46" t="s">
@@ -2887,20 +2889,20 @@
       <c r="G46" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="1">
         <v>44287</v>
       </c>
       <c r="I46" t="s">
         <v>91</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46">
         <v>845333672</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>37</v>
+      <c r="L46" t="s">
+        <v>167</v>
+      </c>
+      <c r="M46" t="s">
+        <v>98</v>
       </c>
       <c r="N46" t="s">
         <v>37</v>
@@ -2910,16 +2912,16 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47">
         <v>25</v>
       </c>
       <c r="D47" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" t="s">
         <v>93</v>
       </c>
       <c r="F47" t="s">
@@ -2928,23 +2930,23 @@
       <c r="G47" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="1">
         <v>44287</v>
       </c>
       <c r="I47" t="s">
         <v>91</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47">
         <v>820213246</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47">
         <v>840742084</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>37</v>
+      <c r="L47" t="s">
+        <v>168</v>
+      </c>
+      <c r="M47" t="s">
+        <v>98</v>
       </c>
       <c r="N47" t="s">
         <v>37</v>
@@ -2954,16 +2956,16 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48">
         <v>19</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" t="s">
         <v>99</v>
       </c>
       <c r="F48" t="s">
@@ -2972,23 +2974,23 @@
       <c r="G48" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="1">
         <v>44287</v>
       </c>
       <c r="I48" t="s">
         <v>91</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48">
         <v>847651022</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48">
         <v>868973404</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>37</v>
+      <c r="L48" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" t="s">
+        <v>98</v>
       </c>
       <c r="N48" t="s">
         <v>37</v>
@@ -2998,16 +3000,16 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49">
         <v>30</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" t="s">
@@ -3016,23 +3018,23 @@
       <c r="G49" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="1">
         <v>44287</v>
       </c>
       <c r="I49" t="s">
         <v>91</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49">
         <v>843667331</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49">
         <v>846421871</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>164</v>
+      <c r="L49" t="s">
+        <v>170</v>
+      </c>
+      <c r="M49" t="s">
+        <v>98</v>
       </c>
       <c r="N49" t="s">
         <v>37</v>
@@ -3042,16 +3044,16 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50">
         <v>25</v>
       </c>
       <c r="D50" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" t="s">
         <v>93</v>
       </c>
       <c r="F50" t="s">
@@ -3060,23 +3062,23 @@
       <c r="G50" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="1">
         <v>44287</v>
       </c>
       <c r="I50" t="s">
         <v>91</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50">
         <v>849541418</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50">
         <v>864253073</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>165</v>
+      <c r="L50" t="s">
+        <v>171</v>
+      </c>
+      <c r="M50" t="s">
+        <v>92</v>
       </c>
       <c r="N50" t="s">
         <v>37</v>
@@ -3086,16 +3088,16 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51">
         <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" t="s">
         <v>93</v>
       </c>
       <c r="F51" t="s">
@@ -3104,23 +3106,23 @@
       <c r="G51" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="1">
         <v>44287</v>
       </c>
       <c r="I51" t="s">
         <v>91</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51">
         <v>846725205</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51">
         <v>849114200</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>166</v>
+      <c r="L51" t="s">
+        <v>172</v>
+      </c>
+      <c r="M51" t="s">
+        <v>92</v>
       </c>
       <c r="N51" t="s">
         <v>37</v>
@@ -3130,16 +3132,16 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52">
         <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" t="s">
         <v>96</v>
       </c>
       <c r="F52" t="s">
@@ -3148,23 +3150,23 @@
       <c r="G52" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="1">
         <v>44287</v>
       </c>
       <c r="I52" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52">
         <v>844341460</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52">
         <v>842963148</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>37</v>
+      <c r="L52" t="s">
+        <v>173</v>
+      </c>
+      <c r="M52" t="s">
+        <v>98</v>
       </c>
       <c r="N52" t="s">
         <v>37</v>
@@ -3174,16 +3176,16 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53">
         <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" t="s">
         <v>93</v>
       </c>
       <c r="F53" t="s">
@@ -3192,23 +3194,23 @@
       <c r="G53" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="1">
         <v>44287</v>
       </c>
       <c r="I53" t="s">
         <v>91</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53">
         <v>860603250</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53">
         <v>842507220</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>166</v>
+      <c r="L53" t="s">
+        <v>174</v>
+      </c>
+      <c r="M53" t="s">
+        <v>92</v>
       </c>
       <c r="N53" t="s">
         <v>37</v>
@@ -3218,16 +3220,16 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54">
         <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" t="s">
         <v>93</v>
       </c>
       <c r="F54" t="s">
@@ -3236,23 +3238,23 @@
       <c r="G54" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="1">
         <v>44287</v>
       </c>
       <c r="I54" t="s">
         <v>91</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54">
         <v>845151959</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54">
         <v>869248045</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>37</v>
+      <c r="L54" t="s">
+        <v>175</v>
+      </c>
+      <c r="M54" t="s">
+        <v>98</v>
       </c>
       <c r="N54" t="s">
         <v>37</v>
@@ -3262,16 +3264,16 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55">
         <v>28</v>
       </c>
       <c r="D55" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" t="s">
         <v>99</v>
       </c>
       <c r="F55" t="s">
@@ -3280,20 +3282,20 @@
       <c r="G55" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="1">
         <v>44287</v>
       </c>
       <c r="I55" t="s">
         <v>91</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55">
         <v>848186229</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" t="s">
         <v>135</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>167</v>
+      <c r="M55" t="s">
+        <v>98</v>
       </c>
       <c r="N55" t="s">
         <v>37</v>
@@ -3303,16 +3305,16 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56">
         <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" t="s">
         <v>99</v>
       </c>
       <c r="F56" t="s">
@@ -3321,23 +3323,23 @@
       <c r="G56" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="1">
         <v>44287</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56">
         <v>846195720</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56">
         <v>833058898</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>37</v>
+      <c r="L56" t="s">
+        <v>176</v>
+      </c>
+      <c r="M56" t="s">
+        <v>98</v>
       </c>
       <c r="N56" t="s">
         <v>37</v>
@@ -3347,16 +3349,16 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57">
         <v>26</v>
       </c>
       <c r="D57" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" t="s">
         <v>99</v>
       </c>
       <c r="F57" t="s">
@@ -3365,23 +3367,23 @@
       <c r="G57" t="s">
         <v>36</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="1">
         <v>44287</v>
       </c>
       <c r="I57" t="s">
         <v>91</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57">
         <v>848719622</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57">
         <v>842700350</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>168</v>
+      <c r="L57" t="s">
+        <v>177</v>
+      </c>
+      <c r="M57" t="s">
+        <v>92</v>
       </c>
       <c r="N57" t="s">
         <v>37</v>
@@ -3391,16 +3393,16 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58">
         <v>22</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" t="s">
         <v>93</v>
       </c>
       <c r="F58" t="s">
@@ -3409,23 +3411,23 @@
       <c r="G58" t="s">
         <v>36</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="1">
         <v>44287</v>
       </c>
       <c r="I58" t="s">
         <v>91</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58">
         <v>846745204</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58">
         <v>850534918</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>166</v>
+      <c r="L58" t="s">
+        <v>178</v>
+      </c>
+      <c r="M58" t="s">
+        <v>92</v>
       </c>
       <c r="N58" t="s">
         <v>37</v>
@@ -3435,16 +3437,16 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59">
         <v>25</v>
       </c>
       <c r="D59" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" t="s">
         <v>93</v>
       </c>
       <c r="F59" t="s">
@@ -3453,23 +3455,23 @@
       <c r="G59" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="1">
         <v>44287</v>
       </c>
       <c r="I59" t="s">
         <v>91</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59">
         <v>842221386</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59">
         <v>877221386</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>37</v>
+      <c r="L59" t="s">
+        <v>179</v>
+      </c>
+      <c r="M59" t="s">
+        <v>98</v>
       </c>
       <c r="N59" t="s">
         <v>37</v>
@@ -3479,16 +3481,16 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60">
         <v>32</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" t="s">
         <v>93</v>
       </c>
       <c r="F60" t="s">
@@ -3497,23 +3499,23 @@
       <c r="G60" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="1">
         <v>44287</v>
       </c>
       <c r="I60" t="s">
         <v>91</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60">
         <v>845166318</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60">
         <v>828641078</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>37</v>
+      <c r="L60" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60" t="s">
+        <v>98</v>
       </c>
       <c r="N60" t="s">
         <v>37</v>
@@ -3523,16 +3525,16 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61">
         <v>28</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" t="s">
         <v>93</v>
       </c>
       <c r="F61" t="s">
@@ -3541,23 +3543,23 @@
       <c r="G61" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="1">
         <v>44287</v>
       </c>
       <c r="I61" t="s">
         <v>91</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61">
         <v>845824583</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61">
         <v>845151607</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>169</v>
+      <c r="L61" t="s">
+        <v>180</v>
+      </c>
+      <c r="M61" t="s">
+        <v>92</v>
       </c>
       <c r="N61" t="s">
         <v>37</v>
@@ -3567,35 +3569,41 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62">
         <v>24</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
         <v>93</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="1">
         <v>44287</v>
       </c>
       <c r="I62" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62">
         <v>848381634</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62">
         <v>879453775</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>37</v>
+      <c r="L62" t="s">
+        <v>167</v>
+      </c>
+      <c r="M62" t="s">
+        <v>98</v>
       </c>
       <c r="N62" t="s">
         <v>37</v>
